--- a/public/assets/lte/descargas/plantilla Orden De Compra (Encabezado).xlsx
+++ b/public/assets/lte/descargas/plantilla Orden De Compra (Encabezado).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyectos\laravel\ReportesBlueMix\public\assets\descargadocumentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ReportesBlueMix3\public\assets\lte\descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F91842-2EAF-4EAA-A0E9-8058AEACAF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A3D70-7D3B-45BC-8C02-D583DE73F78C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>N° Orden</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>CHEVALIER</t>
+  </si>
+  <si>
+    <t>2019-10-12</t>
   </si>
 </sst>
 </file>
@@ -188,12 +191,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,12 +484,12 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
@@ -507,7 +514,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -587,8 +594,8 @@
       <c r="A2">
         <v>8607</v>
       </c>
-      <c r="B2" s="1">
-        <v>43689</v>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>

--- a/public/assets/lte/descargas/plantilla Orden De Compra (Encabezado).xlsx
+++ b/public/assets/lte/descargas/plantilla Orden De Compra (Encabezado).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ReportesBlueMix3\public\assets\lte\descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A3D70-7D3B-45BC-8C02-D583DE73F78C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66713ED9-2B09-4B36-9903-D4352B33CEF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>N° Orden</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Fecha</t>
   </si>
@@ -481,40 +478,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -586,16 +583,13 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>8607</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -606,14 +600,14 @@
       <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>251281</v>
+      </c>
+      <c r="G2">
+        <v>218513</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
-      </c>
-      <c r="G2">
-        <v>251281</v>
-      </c>
-      <c r="H2">
-        <v>218513</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
@@ -624,14 +618,14 @@
       <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>302372</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2">
-        <v>302372</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -640,34 +634,31 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>302372</v>
       </c>
       <c r="R2">
-        <v>302372</v>
+        <v>57451</v>
       </c>
       <c r="S2">
-        <v>57451</v>
-      </c>
-      <c r="T2">
         <v>359823</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
       </c>
       <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="1">
+        <v>32874</v>
+      </c>
+      <c r="W2" t="s">
         <v>36</v>
-      </c>
-      <c r="W2" s="1">
-        <v>32874</v>
       </c>
       <c r="X2" t="s">
         <v>37</v>
       </c>
       <c r="Y2" t="s">
         <v>38</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
